--- a/Design/HW/PCB design/Project Outputs for Reflow Oven/Reflow Oven BOM.xlsx
+++ b/Design/HW/PCB design/Project Outputs for Reflow Oven/Reflow Oven BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDU_OBOS_5057\Documents\Reflow oven\Design\HW\PCB design\Project Outputs for Reflow Oven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFD2BC5-D875-4EC4-9C91-B7804F8D2740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEDD46F-48C8-49EA-A6D6-ECB78D14465B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF658BB0-6D2B-4601-9080-6161D9C3826C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="149">
   <si>
     <t>Comment</t>
   </si>
@@ -480,13 +480,16 @@
   </si>
   <si>
     <t>Farnell / Lomex</t>
+  </si>
+  <si>
+    <t>HIBA!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,8 +522,17 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,6 +558,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -594,7 +612,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -622,6 +640,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bevitel" xfId="3" builtinId="20"/>
@@ -942,10 +975,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H41" sqref="C34:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,28 +1067,28 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="14">
         <v>10</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="15" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1086,158 +1119,158 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="14">
         <v>3</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="14">
         <v>2</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="14">
         <v>4</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="14">
         <v>2</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="15" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1482,98 +1515,98 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="11">
-        <v>1</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12" t="s">
+      <c r="F22" s="17">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="11">
-        <v>1</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12" t="s">
+      <c r="F23" s="14">
+        <v>1</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="11">
-        <v>1</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12" t="s">
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="11">
-        <v>1</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12" t="s">
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1627,345 +1660,348 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="11">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10" t="s">
+      <c r="F28" s="14">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="14">
         <v>2</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="11">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10" t="s">
+      <c r="F30" s="14">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="14">
         <v>3</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="H31" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="11">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10" t="s">
+      <c r="F32" s="14">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H32" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="H32" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="14">
         <v>2</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="H33" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="H33" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F34" s="11">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10" t="s">
+      <c r="F34" s="14">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="H34" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="H34" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="14">
         <v>3</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="H35" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="14">
         <v>2</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="H36" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="H36" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="14">
         <v>2</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H37" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="H37" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="14">
         <v>9</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H38" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="H38" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="11">
-        <v>1</v>
-      </c>
-      <c r="G39" s="10" t="s">
+      <c r="F39" s="14">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H39" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="H39" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="11">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10" t="s">
+      <c r="F40" s="14">
+        <v>1</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="H40" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H40" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>136</v>
       </c>

--- a/Design/HW/PCB design/Project Outputs for Reflow Oven/Reflow Oven BOM.xlsx
+++ b/Design/HW/PCB design/Project Outputs for Reflow Oven/Reflow Oven BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDU_OBOS_5057\Documents\Reflow oven\Design\HW\PCB design\Project Outputs for Reflow Oven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEDD46F-48C8-49EA-A6D6-ECB78D14465B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8D4FB6-A576-48EF-B2D2-F0D2D6B24B7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF658BB0-6D2B-4601-9080-6161D9C3826C}"/>
   </bookViews>
@@ -482,14 +482,14 @@
     <t>Farnell / Lomex</t>
   </si>
   <si>
-    <t>HIBA!</t>
+    <t>MÉRET HIBA!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,14 +501,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -532,7 +524,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,11 +540,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -606,26 +593,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -633,20 +612,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="3" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -654,13 +626,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bevitel" xfId="3" builtinId="20"/>
+  <cellStyles count="3">
+    <cellStyle name="Bevitel" xfId="2" builtinId="20"/>
     <cellStyle name="Jó" xfId="1" builtinId="26"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
-    <cellStyle name="Semleges" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -977,8 +948,8 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H41" sqref="C34:H41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,6 +957,7 @@
     <col min="1" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1010,30 +982,30 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -1041,25 +1013,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -1067,51 +1039,51 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>10</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -1119,302 +1091,302 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <v>3</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>2</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <v>4</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="11">
         <v>2</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4"/>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4"/>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4"/>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5"/>
       <c r="H14" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4"/>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9" t="s">
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="8">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9" t="s">
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1443,193 +1415,193 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="11">
-        <v>1</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12" t="s">
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>2</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4"/>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="17">
-        <v>1</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18" t="s">
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="14">
-        <v>1</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15" t="s">
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="14">
-        <v>1</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15" t="s">
+      <c r="F24" s="11">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="14">
-        <v>1</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15" t="s">
+      <c r="F25" s="11">
+        <v>1</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H26" s="6" t="s">
@@ -1637,390 +1609,390 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="8">
-        <v>1</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9" t="s">
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="14">
-        <v>1</v>
-      </c>
-      <c r="G28" s="13" t="s">
+      <c r="F28" s="11">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="11">
         <v>2</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="14">
-        <v>1</v>
-      </c>
-      <c r="G30" s="13" t="s">
+      <c r="F30" s="11">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="11">
         <v>3</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H31" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="H31" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="14">
-        <v>1</v>
-      </c>
-      <c r="G32" s="13" t="s">
+      <c r="F32" s="11">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="11">
         <v>2</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H33" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="H33" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F34" s="14">
-        <v>1</v>
-      </c>
-      <c r="G34" s="13" t="s">
+      <c r="F34" s="11">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="11">
         <v>3</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="11">
         <v>2</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H36" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="H36" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="11">
         <v>2</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="11">
         <v>9</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="14">
-        <v>1</v>
-      </c>
-      <c r="G39" s="13" t="s">
+      <c r="F39" s="11">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H39" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I39" s="19" t="s">
+      <c r="H39" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I39" s="13" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="14">
-        <v>1</v>
-      </c>
-      <c r="G40" s="13" t="s">
+      <c r="F40" s="11">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="5">
         <v>2</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="5"/>
       <c r="H41" s="6" t="s">
         <v>142</v>
       </c>

--- a/Design/HW/PCB design/Project Outputs for Reflow Oven/Reflow Oven BOM.xlsx
+++ b/Design/HW/PCB design/Project Outputs for Reflow Oven/Reflow Oven BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDU_OBOS_5057\Documents\Reflow oven\Design\HW\PCB design\Project Outputs for Reflow Oven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8D4FB6-A576-48EF-B2D2-F0D2D6B24B7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D89BE1-6747-4631-A33C-837060EAD5F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF658BB0-6D2B-4601-9080-6161D9C3826C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="150">
   <si>
     <t>Comment</t>
   </si>
@@ -482,14 +482,17 @@
     <t>Farnell / Lomex</t>
   </si>
   <si>
-    <t>MÉRET HIBA!</t>
+    <t>Kimaradt a rendelésből, 10 uF-dal helyettesítve</t>
+  </si>
+  <si>
+    <t>MÉRET HIBA - 0805-ös rendelés leadva</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +521,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -598,7 +609,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -627,6 +638,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bevitel" xfId="2" builtinId="20"/>
@@ -949,7 +963,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +974,7 @@
     <col min="9" max="9" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1000,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1012,7 +1026,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1038,7 +1052,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -1064,7 +1078,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1090,7 +1104,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
@@ -1116,7 +1130,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>25</v>
       </c>
@@ -1142,7 +1156,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
@@ -1168,33 +1182,36 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>2</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>36</v>
       </c>
@@ -1220,7 +1237,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>41</v>
       </c>
@@ -1246,7 +1263,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -1270,7 +1287,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
@@ -1294,7 +1311,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
@@ -1318,7 +1335,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -1342,7 +1359,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>58</v>
       </c>
@@ -1415,26 +1432,26 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9" t="s">
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1944,7 +1961,7 @@
         <v>142</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
